--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_23.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_23.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_0</t>
+          <t>model_1_23_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998281175520628</v>
+        <v>0.9316020181366572</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8286149784548017</v>
+        <v>0.7566761823763192</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8186644910262756</v>
+        <v>0.6941734633930314</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997727653953364</v>
+        <v>0.8479438321336872</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000715465278255674</v>
+        <v>0.2847084255156441</v>
       </c>
       <c r="G2" t="n">
-        <v>1.146052428228202</v>
+        <v>1.627107488852712</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6486266011620803</v>
+        <v>1.093923788601669</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0008458175890883972</v>
+        <v>0.4936121017943338</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06611898005028313</v>
+        <v>1.549220709319028</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02674818270940428</v>
+        <v>0.5335807581947124</v>
       </c>
       <c r="L2" t="n">
-        <v>1.011000476667981</v>
+        <v>0.9068623225690652</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02716943984870432</v>
+        <v>0.5419841217512064</v>
       </c>
       <c r="N2" t="n">
-        <v>144.4851549761797</v>
+        <v>36.5125793815426</v>
       </c>
       <c r="O2" t="n">
-        <v>285.8203275193961</v>
+        <v>73.47716296976841</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_1</t>
+          <t>model_1_23_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998350218910529</v>
+        <v>0.9316378429900964</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8284643333374082</v>
+        <v>0.7566286438576023</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8184176507926934</v>
+        <v>0.6943895662654318</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997439928932793</v>
+        <v>0.8485594530029296</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0006867257828851068</v>
+        <v>0.2845593036067931</v>
       </c>
       <c r="G3" t="n">
-        <v>1.147059792821869</v>
+        <v>1.627425379146267</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6495095343649848</v>
+        <v>1.093150801157457</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0009529152222061706</v>
+        <v>0.4916136434914629</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06457280034091666</v>
+        <v>1.546540952872461</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02620545330432402</v>
+        <v>0.5334410029298395</v>
       </c>
       <c r="L3" t="n">
-        <v>1.010558598972615</v>
+        <v>0.9069111053482164</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02661816299802441</v>
+        <v>0.5418421654806158</v>
       </c>
       <c r="N3" t="n">
-        <v>144.5671509939483</v>
+        <v>36.51362719721619</v>
       </c>
       <c r="O3" t="n">
-        <v>285.9023235371648</v>
+        <v>73.47821078544202</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_2</t>
+          <t>model_1_23_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998446515716923</v>
+        <v>0.9320243626740252</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8282629476956791</v>
+        <v>0.7559153923303263</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8179615607798413</v>
+        <v>0.6970089715835017</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9996488036224714</v>
+        <v>0.8562117377457803</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0006466419801416372</v>
+        <v>0.282950405103588</v>
       </c>
       <c r="G4" t="n">
-        <v>1.148406459535408</v>
+        <v>1.632194895393383</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6511409418953382</v>
+        <v>1.083781340216568</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001307230796900385</v>
+        <v>0.4667724258779279</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06076284220039254</v>
+        <v>1.512154157333632</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02542915610360747</v>
+        <v>0.5319308273672321</v>
       </c>
       <c r="L4" t="n">
-        <v>1.009942299411691</v>
+        <v>0.9074374300242045</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02582963989240908</v>
+        <v>0.540308206162519</v>
       </c>
       <c r="N4" t="n">
-        <v>144.6874355406848</v>
+        <v>36.52496728736047</v>
       </c>
       <c r="O4" t="n">
-        <v>286.0226080839012</v>
+        <v>73.48955087558629</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_8</t>
+          <t>model_1_23_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998193956765713</v>
+        <v>0.9320522801375815</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8280830367902403</v>
+        <v>0.75585655514749</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8162977244485166</v>
+        <v>0.697228569685069</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999262420303685</v>
+        <v>0.8568712459309976</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0007517703178355208</v>
+        <v>0.2828341979162274</v>
       </c>
       <c r="G5" t="n">
-        <v>1.149609524588491</v>
+        <v>1.63258833990593</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6570923879777133</v>
+        <v>1.082995850540291</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00274543519206178</v>
+        <v>0.4646314984428642</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05376600323184043</v>
+        <v>1.509093531560753</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02741843025841416</v>
+        <v>0.5318215846655976</v>
       </c>
       <c r="L5" t="n">
-        <v>1.011558676699437</v>
+        <v>0.9074754452937279</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02785024312660936</v>
+        <v>0.5401972429975365</v>
       </c>
       <c r="N5" t="n">
-        <v>144.3861594181548</v>
+        <v>36.52578885223427</v>
       </c>
       <c r="O5" t="n">
-        <v>285.7213319613712</v>
+        <v>73.49037244046009</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_9</t>
+          <t>model_1_23_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998183331545081</v>
+        <v>0.9321795201763601</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8280593208031345</v>
+        <v>0.7556816345494007</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8162654830283231</v>
+        <v>0.6983245826907923</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9992522067966347</v>
+        <v>0.8602181634798675</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0007561930942897364</v>
+        <v>0.2823045578579053</v>
       </c>
       <c r="G6" t="n">
-        <v>1.149768113503469</v>
+        <v>1.633758034750788</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6572077136682799</v>
+        <v>1.079075475569304</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00278345213020435</v>
+        <v>0.453766572481541</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05366137417581686</v>
+        <v>1.49331479375091</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02749896533125813</v>
+        <v>0.5313234023247096</v>
       </c>
       <c r="L6" t="n">
-        <v>1.011626678111483</v>
+        <v>0.9076487083252562</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02793204654634509</v>
+        <v>0.5396912147827791</v>
       </c>
       <c r="N6" t="n">
-        <v>144.3744275973413</v>
+        <v>36.52953759682469</v>
       </c>
       <c r="O6" t="n">
-        <v>285.7096001405577</v>
+        <v>73.49412118505052</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_3</t>
+          <t>model_1_23_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998454631299751</v>
+        <v>0.9321557829662676</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8280548712361462</v>
+        <v>0.7556481413282355</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8170845205419612</v>
+        <v>0.6981056233515549</v>
       </c>
       <c r="E7" t="n">
-        <v>0.999535041117274</v>
+        <v>0.8595422083765026</v>
       </c>
       <c r="F7" t="n">
-        <v>0.000643263847123703</v>
+        <v>0.282403364628624</v>
       </c>
       <c r="G7" t="n">
-        <v>1.149797867778408</v>
+        <v>1.633982004074941</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6542780639725203</v>
+        <v>1.079858680429765</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001730680068710082</v>
+        <v>0.455960890699424</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05878158575390527</v>
+        <v>1.496534952381872</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02536264669003815</v>
+        <v>0.5314163759507454</v>
       </c>
       <c r="L7" t="n">
-        <v>1.009890359681592</v>
+        <v>0.9076163853157686</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02576208302206106</v>
+        <v>0.5397856526504854</v>
       </c>
       <c r="N7" t="n">
-        <v>144.6979111604384</v>
+        <v>36.52883771805344</v>
       </c>
       <c r="O7" t="n">
-        <v>286.0330837036548</v>
+        <v>73.49342130627926</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_6</t>
+          <t>model_1_23_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998264483412534</v>
+        <v>0.932360509056831</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8279627363326132</v>
+        <v>0.754835848535872</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8165085409283486</v>
+        <v>0.7004860813916369</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9993499945445042</v>
+        <v>0.8671527509129934</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0007224134128119759</v>
+        <v>0.2815511868111156</v>
       </c>
       <c r="G8" t="n">
-        <v>1.150413974302575</v>
+        <v>1.63941380971774</v>
       </c>
       <c r="H8" t="n">
-        <v>0.656338309653196</v>
+        <v>1.071343920047279</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002419464447660213</v>
+        <v>0.4312551786592837</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05676270551523339</v>
+        <v>1.459235643065872</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02687774940005163</v>
+        <v>0.5306139715566446</v>
       </c>
       <c r="L8" t="n">
-        <v>1.011107306159779</v>
+        <v>0.9078951612688763</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02730104708521019</v>
+        <v>0.5389706111892876</v>
       </c>
       <c r="N8" t="n">
-        <v>144.4658259780368</v>
+        <v>36.53488202402767</v>
       </c>
       <c r="O8" t="n">
-        <v>285.8009985212532</v>
+        <v>73.49946561225349</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_4</t>
+          <t>model_1_23_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998339671828987</v>
+        <v>0.9323994404263058</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8279539847147627</v>
+        <v>0.7545180216562596</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8165076295106113</v>
+        <v>0.7013266074487132</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9994023774686263</v>
+        <v>0.8700128967356042</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0006911160337343272</v>
+        <v>0.2813891339463322</v>
       </c>
       <c r="G9" t="n">
-        <v>1.150472496411439</v>
+        <v>1.641539119525167</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6563415697415951</v>
+        <v>1.068337407077618</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002224483587875082</v>
+        <v>0.4219704346679812</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0573486506886506</v>
+        <v>1.44460122195328</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02628908582918636</v>
+        <v>0.5304612464132816</v>
       </c>
       <c r="L9" t="n">
-        <v>1.010626100294481</v>
+        <v>0.9079481741975228</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02670311265155148</v>
+        <v>0.5388154807775858</v>
       </c>
       <c r="N9" t="n">
-        <v>144.5544056536519</v>
+        <v>36.53603349862122</v>
       </c>
       <c r="O9" t="n">
-        <v>285.8895781968682</v>
+        <v>73.50061708684704</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_5</t>
+          <t>model_1_23_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998331893173722</v>
+        <v>0.9324056517226154</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8279388103997128</v>
+        <v>0.7544210533774398</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8164677604322185</v>
+        <v>0.7015334899053001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9993919118012783</v>
+        <v>0.8707352576499149</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0006943539197551737</v>
+        <v>0.2813632792596216</v>
       </c>
       <c r="G10" t="n">
-        <v>1.150573967126049</v>
+        <v>1.642187546852133</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6564841791232643</v>
+        <v>1.067597400526141</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00226343912256384</v>
+        <v>0.4196254716574676</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0569663563886868</v>
+        <v>1.440850267922501</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02635059619354321</v>
+        <v>0.5304368758482215</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01067588368818</v>
+        <v>0.9079566321329231</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02676559174265914</v>
+        <v>0.5387907264004876</v>
       </c>
       <c r="N10" t="n">
-        <v>144.5450575132392</v>
+        <v>36.53621727170595</v>
       </c>
       <c r="O10" t="n">
-        <v>285.8802300564556</v>
+        <v>73.50080085993177</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_7</t>
+          <t>model_1_23_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998196131177083</v>
+        <v>0.9322962024044653</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8279379326540326</v>
+        <v>0.7525293034978313</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8160320718160007</v>
+        <v>0.70439468563418</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9992716159022266</v>
+        <v>0.881896541682136</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0007508652132977042</v>
+        <v>0.2818188649683716</v>
       </c>
       <c r="G11" t="n">
-        <v>1.150579836615454</v>
+        <v>1.654837687007782</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6580426120407977</v>
+        <v>1.057363069305598</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002711207135115</v>
+        <v>0.3833931704810233</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0551814941132439</v>
+        <v>1.379749125071457</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02740191988342613</v>
+        <v>0.5308661459995087</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01154476046667</v>
+        <v>0.9078075947635272</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02783347272971959</v>
+        <v>0.5392267571275448</v>
       </c>
       <c r="N11" t="n">
-        <v>144.3885687972185</v>
+        <v>36.53298147445778</v>
       </c>
       <c r="O11" t="n">
-        <v>285.7237413404349</v>
+        <v>73.49756506268361</v>
       </c>
     </row>
   </sheetData>
